--- a/data/Grain_Counting/gc_63_06.xlsx
+++ b/data/Grain_Counting/gc_63_06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han-wenhsu/Library/Mobile Documents/com~apple~CloudDocs/HU Dokumente/6. Semester/Studienprojekt/Ear_development_BSC_project_hwh/data/Grain_Counting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225C6FF4-921D-D94B-A124-828E5F29CDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1B6270-13EE-8641-A0A5-8B242B776D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
